--- a/CEDEN/data_dictionaries/data_dictionary_conversion/toxicity/CEDEN_Toxicity_Data_Dictionary.xlsx
+++ b/CEDEN/data_dictionaries/data_dictionary_conversion/toxicity/CEDEN_Toxicity_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Open_Data_Project\__CA_DataPortal\CEDEN\data_dictionary_conversion\toxicity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/CEDEN/data_dictionaries/data_dictionary_conversion/toxicity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86CF9FB-D4D5-4540-AF40-F25DEEE60A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E86CF9FB-D4D5-4540-AF40-F25DEEE60A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3FF5AD-ADF9-458D-8709-F20C01E917B8}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEDEN_Toxicity_Data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="277">
   <si>
     <t>column</t>
   </si>
@@ -1557,6 +1557,30 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>ParentProjectCode</t>
+  </si>
+  <si>
+    <t>ProjectCode</t>
+  </si>
+  <si>
+    <t>MatrixCode</t>
+  </si>
+  <si>
+    <t>AnalyteCode</t>
+  </si>
+  <si>
+    <t>FractionName</t>
+  </si>
+  <si>
+    <t>FractionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific descriptor of the Analyte. For example, metals are often expressed as total or dissolved and therefore this description should be used within the fraction field.	</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2456,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2473,7 +2501,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2579,7 +2607,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2721,7 +2749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2729,21 +2757,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2793,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2855,7 +2885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -2879,7 +2909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2902,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2925,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2948,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -2971,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2994,7 +3024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -3017,7 +3047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -3040,7 +3070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>133</v>
       </c>
@@ -3063,7 +3093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>134</v>
       </c>
@@ -3086,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -3109,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -3132,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -3155,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>135</v>
       </c>
@@ -3178,7 +3208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>136</v>
       </c>
@@ -3201,7 +3231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -3224,7 +3254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3247,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>137</v>
       </c>
@@ -3270,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
@@ -3293,7 +3323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3317,7 +3347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -3340,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>139</v>
       </c>
@@ -3363,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -3386,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>140</v>
       </c>
@@ -3409,7 +3439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -3432,7 +3462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
@@ -3455,7 +3485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>54</v>
       </c>
@@ -3478,7 +3508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>141</v>
       </c>
@@ -3501,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>142</v>
       </c>
@@ -3524,7 +3554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>143</v>
       </c>
@@ -3547,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>144</v>
       </c>
@@ -3570,7 +3600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
@@ -3593,7 +3623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
@@ -3616,7 +3646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>61</v>
       </c>
@@ -3639,7 +3669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
@@ -3662,7 +3692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>66</v>
       </c>
@@ -3686,7 +3716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
@@ -3709,7 +3739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
@@ -3732,7 +3762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -3755,7 +3785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>75</v>
       </c>
@@ -3779,7 +3809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>145</v>
       </c>
@@ -3802,7 +3832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>146</v>
       </c>
@@ -3825,7 +3855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>147</v>
       </c>
@@ -3848,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>148</v>
       </c>
@@ -3871,7 +3901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>149</v>
       </c>
@@ -3894,7 +3924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>150</v>
       </c>
@@ -3917,7 +3947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>77</v>
       </c>
@@ -3940,7 +3970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>79</v>
       </c>
@@ -3963,7 +3993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>151</v>
       </c>
@@ -3986,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>152</v>
       </c>
@@ -4009,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>153</v>
       </c>
@@ -4033,7 +4063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>154</v>
       </c>
@@ -4056,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>82</v>
       </c>
@@ -4079,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>84</v>
       </c>
@@ -4102,7 +4132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>86</v>
       </c>
@@ -4125,7 +4155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>88</v>
       </c>
@@ -4148,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>90</v>
       </c>
@@ -4171,7 +4201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
@@ -4194,7 +4224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>93</v>
       </c>
@@ -4217,7 +4247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>96</v>
       </c>
@@ -4240,7 +4270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>98</v>
       </c>
@@ -4263,7 +4293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>100</v>
       </c>
@@ -4286,7 +4316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>102</v>
       </c>
@@ -4309,7 +4339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -4332,7 +4362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>156</v>
       </c>
@@ -4355,7 +4385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
@@ -4378,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>158</v>
       </c>
@@ -4401,7 +4431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>159</v>
       </c>
@@ -4424,7 +4454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>160</v>
       </c>
@@ -4447,7 +4477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>161</v>
       </c>
@@ -4470,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>162</v>
       </c>
@@ -4493,7 +4523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>163</v>
       </c>
@@ -4516,7 +4546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>164</v>
       </c>
@@ -4539,7 +4569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>105</v>
       </c>
@@ -4562,7 +4592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>107</v>
       </c>
@@ -4585,7 +4615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>165</v>
       </c>
@@ -4608,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>113</v>
       </c>
@@ -4631,7 +4661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>166</v>
       </c>
@@ -4654,7 +4684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>167</v>
       </c>
@@ -4679,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>114</v>
       </c>
@@ -4702,7 +4732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>117</v>
       </c>
@@ -4725,19 +4755,183 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="4" t="str" cm="1">
         <f t="array" ref="C87">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E87),"-")</f>
-        <v>Data Quality</v>
+        <v>-</v>
       </c>
       <c r="D87" s="5" t="str" cm="1">
         <f t="array" ref="D87">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E87),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E87" s="2" t="e">
+        <f>MATCH(A87,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="str" cm="1">
+        <f t="array" ref="C88">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E88),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D88" s="5" t="str" cm="1">
+        <f t="array" ref="D88">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E88),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E88" s="2" t="e">
+        <f>MATCH(A88,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="4" t="str" cm="1">
+        <f t="array" ref="C89">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E89),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D89" s="5" t="str" cm="1">
+        <f t="array" ref="D89">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E89),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E89" s="2" t="e">
+        <f>MATCH(A89,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4" t="str" cm="1">
+        <f t="array" ref="C90">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E90),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D90" s="5" t="str" cm="1">
+        <f t="array" ref="D90">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E90),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E90" s="2" t="e">
+        <f>MATCH(A90,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4" t="str" cm="1">
+        <f t="array" ref="C91">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E91),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D91" s="5" t="str" cm="1">
+        <f t="array" ref="D91">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E91),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E91" s="2" t="e">
+        <f>MATCH(A91,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4" t="str" cm="1">
+        <f t="array" ref="C92">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E92),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D92" s="5" t="str" cm="1">
+        <f t="array" ref="D92">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E92),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E92" s="2" t="e">
+        <f>MATCH(A92,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4" t="str" cm="1">
+        <f t="array" ref="C93">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E93),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D93" s="5" t="str" cm="1">
+        <f t="array" ref="D93">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E93),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E93" s="2" t="e">
+        <f>MATCH(A93,Data_Dictionary_FromPDF!A:A,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="144.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="str" cm="1">
+        <f t="array" ref="C94">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E94),"-")</f>
+        <v>Data Quality</v>
+      </c>
+      <c r="D94" s="5" t="str" cm="1">
+        <f t="array" ref="D94">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E94),"-")</f>
         <v>Describes the overall quality of the record by taking the QACode, ResultQACode, ComplicanceCode, BatchVerificationCode, and special circumstances into account to assign it to one of the following categories:
    "Metadata, QC record”- Not a measurement of environmental conditions
    "Passed QC"- Data passed all QC checks
@@ -4749,69 +4943,69 @@
 The assignments and categories are provisional. A working explanation of the data quality ranking can be found at the following link. This link is open to public comments as well:
 https://docs.google.com/spreadsheets/d/1q-tGulvO9jyT2dR9GGROdy89z3W6xulYaci5-ezWAe0/edit?usp=sharing</v>
       </c>
-      <c r="E87" s="2">
-        <f>MATCH(A87,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E94" s="2">
+        <f>MATCH(A94,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>13</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="108.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="4" t="str" cm="1">
-        <f t="array" ref="C88">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E88),"-")</f>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="str" cm="1">
+        <f t="array" ref="C95">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E95),"-")</f>
         <v>Data Quality Indicator</v>
       </c>
-      <c r="D88" s="5" t="str" cm="1">
-        <f t="array" ref="D88">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E88),"-")</f>
+      <c r="D95" s="5" t="str" cm="1">
+        <f t="array" ref="D95">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E95),"-")</f>
         <v>Explains the reason for the DataQuality value by indicating which quality assurance check the data did not pass (e.g.
 BatchVerificationCode, ResultQACode, etc.). If this field contains “Special Rule,” this indicates that the data falls into a special circumstance that decreases data quality. This field is left blank
 for values "Metadata, QC record" and "Passed QC."
 The assignments and categories are provisional. A working explanation of the data quality ranking can be found at the following link. A full explanation of the data quality ranking can be found at the following link. This link is open to public
 comments as well: https://docs.google.com/spreadsheets/d/1q-tGulvO9jyT2dR9GGROdy89z3W6xulYaci5-ezWAe0/edit?usp=sharing</v>
       </c>
-      <c r="E88" s="2">
-        <f>MATCH(A88,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E95" s="2">
+        <f>MATCH(A95,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>14</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="4" t="str" cm="1">
-        <f t="array" ref="C89">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E89),"-")</f>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="str" cm="1">
+        <f t="array" ref="C96">IFERROR(INDEX(Data_Dictionary_FromPDF!B:B,E96),"-")</f>
         <v>Datum</v>
       </c>
-      <c r="D89" s="5" t="str" cm="1">
-        <f t="array" ref="D89">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E89),"-")</f>
+      <c r="D96" s="5" t="str" cm="1">
+        <f t="array" ref="D96">IFERROR(INDEX(Data_Dictionary_FromPDF!D:D,E96),"-")</f>
         <v>Represents the associated model of the Earth from which reference points are used to calculate position measurements.
 GPS devices commonly use datums such as "NAD83" and
 "WGS84." Default value equals “NR” if unknown. A list of possible options is available at the following site (Note: search the first column in the table for "DatumList"): http://ceden.org/CEDEN_Checker/Checker/DisplayCEDENLookUp.php?List=VariableCodesLookUp</v>
       </c>
-      <c r="E89" s="2">
-        <f>MATCH(A89,Data_Dictionary_FromPDF!A:A,0)</f>
+      <c r="E96" s="2">
+        <f>MATCH(A96,Data_Dictionary_FromPDF!A:A,0)</f>
         <v>15</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B89" xr:uid="{7DFFDCE5-D20D-4C07-929D-D4DBB653D02D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B96" xr:uid="{7DFFDCE5-D20D-4C07-929D-D4DBB653D02D}">
       <formula1>"text, numeric, timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4828,17 +5022,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="106" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="5" max="5" width="10.88671875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>125</v>
       </c>
@@ -4855,7 +5049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
@@ -4873,7 +5067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>41</v>
       </c>
@@ -4891,7 +5085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>166</v>
       </c>
@@ -4909,7 +5103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>105</v>
       </c>
@@ -4927,7 +5121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -4945,7 +5139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
@@ -4963,7 +5157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -4981,7 +5175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>66</v>
       </c>
@@ -4999,7 +5193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>30</v>
       </c>
@@ -5017,7 +5211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
@@ -5035,7 +5229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
@@ -5053,7 +5247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>120</v>
       </c>
@@ -5068,10 +5262,10 @@
       </c>
       <c r="E13" s="12">
         <f>MATCH(A13,CEDEN_Toxicity_Data_Dictionary!A:A,0)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>122</v>
       </c>
@@ -5086,10 +5280,10 @@
       </c>
       <c r="E14" s="12">
         <f>MATCH(A14,CEDEN_Toxicity_Data_Dictionary!A:A,0)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>124</v>
       </c>
@@ -5104,10 +5298,10 @@
       </c>
       <c r="E15" s="12">
         <f>MATCH(A15,CEDEN_Toxicity_Data_Dictionary!A:A,0)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>146</v>
       </c>
@@ -5125,7 +5319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -5143,7 +5337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>110</v>
       </c>
@@ -5161,7 +5355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>117</v>
       </c>
@@ -5179,7 +5373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>162</v>
       </c>
@@ -5197,7 +5391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>57</v>
       </c>
@@ -5215,7 +5409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>63</v>
       </c>
@@ -5233,7 +5427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>177</v>
       </c>
@@ -5251,7 +5445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>100</v>
       </c>
@@ -5269,7 +5463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>77</v>
       </c>
@@ -5287,7 +5481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>133</v>
       </c>
@@ -5305,7 +5499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>154</v>
       </c>
@@ -5341,7 +5535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>68</v>
       </c>
@@ -5359,7 +5553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>21</v>
       </c>
@@ -5377,7 +5571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>102</v>
       </c>
@@ -5395,7 +5589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>70</v>
       </c>
@@ -5413,7 +5607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>37</v>
       </c>
@@ -5431,7 +5625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>157</v>
       </c>
@@ -5449,7 +5643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
@@ -5467,7 +5661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>163</v>
       </c>
@@ -5485,7 +5679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>82</v>
       </c>
@@ -5503,7 +5697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>153</v>
       </c>
@@ -5521,7 +5715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>136</v>
       </c>
@@ -5539,7 +5733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>8</v>
       </c>
@@ -5557,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>155</v>
       </c>
@@ -5575,7 +5769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
         <v>167</v>
       </c>
@@ -5593,7 +5787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>75</v>
       </c>
@@ -5611,7 +5805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>160</v>
       </c>
@@ -5629,7 +5823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
@@ -5647,7 +5841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>10</v>
       </c>
@@ -5665,7 +5859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>59</v>
       </c>
@@ -5683,7 +5877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>47</v>
       </c>
@@ -5701,7 +5895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>152</v>
       </c>
@@ -5719,7 +5913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>156</v>
       </c>
@@ -5737,7 +5931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>44</v>
       </c>
@@ -5755,7 +5949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>43</v>
       </c>
@@ -5773,7 +5967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
         <v>61</v>
       </c>
@@ -5791,7 +5985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>51</v>
       </c>
@@ -5809,7 +6003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +6021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>114</v>
       </c>
@@ -5845,7 +6039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>28</v>
       </c>
@@ -5863,7 +6057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>164</v>
       </c>
@@ -5881,7 +6075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
         <v>84</v>
       </c>
@@ -5899,7 +6093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>14</v>
       </c>
@@ -5917,7 +6111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>12</v>
       </c>
@@ -5935,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>93</v>
       </c>
@@ -5953,7 +6147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>159</v>
       </c>
@@ -5971,7 +6165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>158</v>
       </c>
@@ -5989,7 +6183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>79</v>
       </c>
@@ -6007,7 +6201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>145</v>
       </c>
@@ -6025,7 +6219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>142</v>
       </c>
@@ -6043,7 +6237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>138</v>
       </c>
@@ -6061,7 +6255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>134</v>
       </c>
@@ -6079,7 +6273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>144</v>
       </c>
@@ -6097,7 +6291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>151</v>
       </c>
@@ -6115,7 +6309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
         <v>147</v>
       </c>
@@ -6133,7 +6327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>143</v>
       </c>
@@ -6151,7 +6345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>139</v>
       </c>
@@ -6169,7 +6363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>141</v>
       </c>
@@ -6187,7 +6381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>135</v>
       </c>
@@ -6205,7 +6399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>148</v>
       </c>
@@ -6223,7 +6417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>150</v>
       </c>
@@ -6241,7 +6435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>42</v>
       </c>
@@ -6259,7 +6453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>26</v>
       </c>
@@ -6277,7 +6471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="46" t="s">
         <v>88</v>
       </c>
@@ -6295,7 +6489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
         <v>96</v>
       </c>
@@ -6313,7 +6507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>91</v>
       </c>
@@ -6331,7 +6525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
         <v>149</v>
       </c>
@@ -6349,7 +6543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>107</v>
       </c>
@@ -6367,7 +6561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>137</v>
       </c>
@@ -6439,12 +6633,12 @@
       <selection activeCell="B73" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6458,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6466,7 +6660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6474,7 +6668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6482,7 +6676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6490,7 +6684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6498,7 +6692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6506,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6514,7 +6708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -6522,7 +6716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6530,7 +6724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -6538,7 +6732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6546,7 +6740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -6554,7 +6748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -6562,7 +6756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -6570,7 +6764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -6578,7 +6772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6586,7 +6780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6594,7 +6788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -6602,7 +6796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -6610,7 +6804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6618,7 +6812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6626,7 +6820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -6634,7 +6828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -6642,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -6650,7 +6844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -6658,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -6666,7 +6860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -6674,7 +6868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -6682,7 +6876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -6690,7 +6884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -6698,7 +6892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -6706,7 +6900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -6714,7 +6908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -6722,7 +6916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -6730,7 +6924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -6738,7 +6932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -6746,7 +6940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -6754,7 +6948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -6762,7 +6956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -6770,7 +6964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -6778,7 +6972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -6786,7 +6980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -6794,7 +6988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -6802,7 +6996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -6810,7 +7004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -6818,7 +7012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -6826,7 +7020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -6834,7 +7028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -6842,7 +7036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -6850,7 +7044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -6858,7 +7052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -6866,7 +7060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -6874,7 +7068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -6882,7 +7076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -6890,7 +7084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -6898,7 +7092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -6906,7 +7100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -6914,7 +7108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -6922,7 +7116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -6930,7 +7124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -6938,7 +7132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -6946,7 +7140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -6954,7 +7148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -6962,7 +7156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -6970,7 +7164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -6978,7 +7172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -6986,7 +7180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -6994,7 +7188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -7002,7 +7196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -7010,7 +7204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -7018,7 +7212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -7026,7 +7220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -7034,7 +7228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -7042,7 +7236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -7050,7 +7244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>162</v>
       </c>
@@ -7058,7 +7252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -7066,7 +7260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -7074,7 +7268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -7082,7 +7276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -7090,7 +7284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -7098,7 +7292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -7106,7 +7300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -7114,7 +7308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -7122,7 +7316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -7130,7 +7324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -7138,7 +7332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -7146,7 +7340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -7154,7 +7348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>124</v>
       </c>
